--- a/Data/layers/layers_rhesus_2021.xlsx
+++ b/Data/layers/layers_rhesus_2021.xlsx
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003580927044150327</v>
+        <v>0.003713114115009889</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01954836775542684</v>
+        <v>0.01820022077462756</v>
       </c>
       <c r="J2" t="n">
-        <v>0.004507486950981352</v>
+        <v>0.004555943997534399</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001065097397053721</v>
+        <v>0.001230815553294412</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01933858770482531</v>
+        <v>0.02000674886720601</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009910469770113687</v>
+        <v>0.001067528516517135</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003302940115414673</v>
+        <v>0.003616087383224685</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003099787703989561</v>
+        <v>0.003299347579592814</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001880330957110402</v>
+        <v>0.001943582310332787</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001644115949360455</v>
+        <v>0.001706475383408264</v>
       </c>
     </row>
     <row r="3">
@@ -616,13 +616,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006153440835292726</v>
+        <v>0.00590150309888984</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02221063733887596</v>
+        <v>0.02055414153850531</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002796041148793825</v>
+        <v>0.002609481488213362</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001860053059778756</v>
+        <v>0.0001739567729701098</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009834218006932292</v>
+        <v>0.0104794268891573</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004186118855141496</v>
+        <v>0.0004024477201283521</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0003431735164190272</v>
+        <v>0.000305023872627135</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01010961868746355</v>
+        <v>0.009729014087142074</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01316240913825987</v>
+        <v>0.01336185742984315</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00103459023862269</v>
+        <v>0.001011729131325013</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00776982701634182</v>
+        <v>0.007984342805015272</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006418993124657716</v>
+        <v>0.006518664401462732</v>
       </c>
     </row>
     <row r="5">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003580927044150327</v>
+        <v>0.003713114115009889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006153440835292726</v>
+        <v>0.00590150309888984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01316240913825987</v>
+        <v>0.01336185742984315</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.006205253241943094</v>
+        <v>0.005985296309486331</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01581624906737168</v>
+        <v>0.01600223192694273</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006573985617048401</v>
+        <v>0.0005902691184478283</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009073745913260755</v>
+        <v>0.009074421136883708</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0007940742491351035</v>
+        <v>0.0008255342829916904</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0009217349215722058</v>
+        <v>0.0008527937988262167</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0007465246177979837</v>
+        <v>0.0007465787304204452</v>
       </c>
       <c r="S5" t="n">
-        <v>0.003696211260102981</v>
+        <v>0.003696512656521021</v>
       </c>
     </row>
     <row r="6">
@@ -793,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02221063733887596</v>
+        <v>0.02055414153850531</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00103459023862269</v>
+        <v>0.001011729131325013</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006205253241943094</v>
+        <v>0.005985296309486331</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003085096451588991</v>
+        <v>0.002894559194802842</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001626350459157675</v>
+        <v>0.0001528957994570927</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02035884788412324</v>
+        <v>0.02186689109125814</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0152159196690362</v>
+        <v>0.01358044996481902</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004803816135279076</v>
+        <v>0.004752722719243788</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02089283808384018</v>
+        <v>0.02021290789800061</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002796041148793825</v>
+        <v>0.002609481488213362</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003085096451588991</v>
+        <v>0.002894559194802842</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0006244318597516253</v>
+        <v>0.0006790001522689798</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.000665003699748653</v>
+        <v>0.0006741948704967328</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.007584375936792561</v>
+        <v>0.00758085898285966</v>
       </c>
       <c r="R7" t="n">
-        <v>0.001010870722802132</v>
+        <v>0.000986650401011734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00776982701634182</v>
+        <v>0.007984342805015272</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01581624906737168</v>
+        <v>0.01600223192694273</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -939,16 +939,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003414490549860896</v>
+        <v>0.0003855821531593759</v>
       </c>
       <c r="L8" t="n">
-        <v>5.79928650294771e-05</v>
+        <v>5.86279651657113e-05</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.02830857425884865</v>
+        <v>0.03028479122010058</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002804864995881892</v>
+        <v>0.002838597898692539</v>
       </c>
     </row>
     <row r="9">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01954836775542684</v>
+        <v>0.01820022077462756</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0006573985617048401</v>
+        <v>0.0005902691184478283</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -997,28 +997,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001939530028946959</v>
+        <v>0.001696786507270974</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0559652138546678</v>
+        <v>0.05057978397603337</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0414744537314008</v>
+        <v>0.0388054243544862</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02965282208942762</v>
+        <v>0.0272847150676767</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01085029959998983</v>
+        <v>0.009016594657688188</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.009550210049482857</v>
+        <v>0.008796654211139794</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004507486950981352</v>
+        <v>0.004555943997534399</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001860053059778756</v>
+        <v>0.0001739567729701098</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001626350459157675</v>
+        <v>0.0001528957994570927</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001939530028946959</v>
+        <v>0.001696786507270974</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004224216323580388</v>
+        <v>0.004124360866137903</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0241793978504354</v>
+        <v>0.02451647775088946</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00869970823889581</v>
+        <v>0.008967953809478462</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01453205676771177</v>
+        <v>0.01453092914032803</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0008707159838310696</v>
+        <v>0.0008506613100888455</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0009892421015556538</v>
+        <v>0.0009636441334347853</v>
       </c>
     </row>
     <row r="11">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.001065097397053721</v>
+        <v>0.001230815553294412</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009834218006932292</v>
+        <v>0.0104794268891573</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02035884788412324</v>
+        <v>0.02186689109125814</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0006244318597516253</v>
+        <v>0.0006790001522689798</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003414490549860896</v>
+        <v>0.0003855821531593759</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1131,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0102094913180292</v>
+        <v>0.0119923536226213</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0004826091640178875</v>
+        <v>0.0005524726345364878</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002087561773985803</v>
+        <v>0.002386209891802639</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01206294477208031</v>
+        <v>0.01331205188995035</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01933858770482531</v>
+        <v>0.02000674886720601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004186118855141496</v>
+        <v>0.0004024477201283521</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009073745913260755</v>
+        <v>0.009074421136883708</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>5.79928650294771e-05</v>
+        <v>5.86279651657113e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0559652138546678</v>
+        <v>0.05057978397603337</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004224216323580388</v>
+        <v>0.004124360866137903</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01675360559607274</v>
+        <v>0.01737574856309736</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0006554643070037641</v>
+        <v>0.0006092312537852067</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0009910469770113687</v>
+        <v>0.001067528516517135</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1226,28 +1226,28 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0007940742491351035</v>
+        <v>0.0008255342829916904</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000665003699748653</v>
+        <v>0.0006741948704967328</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0414744537314008</v>
+        <v>0.0388054243544862</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0241793978504354</v>
+        <v>0.02451647775088946</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01675360559607274</v>
+        <v>0.01737574856309736</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1256,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02392983308752741</v>
+        <v>0.02552332640558641</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0008376275422476019</v>
+        <v>0.0008928259326404539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003302940115414673</v>
+        <v>0.003616087383224685</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02830857425884865</v>
+        <v>0.03028479122010058</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00869970823889581</v>
+        <v>0.008967953809478462</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0102094913180292</v>
+        <v>0.0119923536226213</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.000450120482970622</v>
+        <v>0.0004734654192755917</v>
       </c>
       <c r="S14" t="n">
-        <v>0.006362418993467473</v>
+        <v>0.00673375195465038</v>
       </c>
     </row>
     <row r="15">
@@ -1339,7 +1339,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003099787703989561</v>
+        <v>0.003299347579592814</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02965282208942762</v>
+        <v>0.0272847150676767</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01453205676771177</v>
+        <v>0.01453092914032803</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0004826091640178875</v>
+        <v>0.0005524726345364878</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02392983308752741</v>
+        <v>0.02552332640558641</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001462743937762772</v>
+        <v>0.001540101110409271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.004616111668700041</v>
+        <v>0.004739835741677996</v>
       </c>
     </row>
     <row r="16">
@@ -1403,16 +1403,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0003431735164190272</v>
+        <v>0.000305023872627135</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0009217349215722058</v>
+        <v>0.0008527937988262167</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0152159196690362</v>
+        <v>0.01358044996481902</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01085029959998983</v>
+        <v>0.009016594657688188</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0006554643070037641</v>
+        <v>0.0006092312537852067</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02309782446994499</v>
+        <v>0.02191051607940658</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0005071840383223356</v>
+        <v>0.000468162573754657</v>
       </c>
     </row>
     <row r="17">
@@ -1473,43 +1473,43 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.004803816135279076</v>
+        <v>0.004752722719243788</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007584375936792561</v>
+        <v>0.00758085898285966</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009550210049482857</v>
+        <v>0.008796654211139794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002087561773985803</v>
+        <v>0.002386209891802639</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0008376275422476019</v>
+        <v>0.0008928259326404539</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001462743937762772</v>
+        <v>0.001540101110409271</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02309782446994499</v>
+        <v>0.02191051607940658</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0003574526060344071</v>
+        <v>0.0003658796913000801</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001880330957110402</v>
+        <v>0.001943582310332787</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01010961868746355</v>
+        <v>0.009729014087142074</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0007465246177979837</v>
+        <v>0.0007465787304204452</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02089283808384018</v>
+        <v>0.02021290789800061</v>
       </c>
       <c r="G18" t="n">
-        <v>0.001010870722802132</v>
+        <v>0.000986650401011734</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0008707159838310696</v>
+        <v>0.0008506613100888455</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01206294477208031</v>
+        <v>0.01331205188995035</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.000450120482970622</v>
+        <v>0.0004734654192755917</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0003574526060344071</v>
+        <v>0.0003658796913000801</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001644115949360455</v>
+        <v>0.001706475383408264</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006418993124657716</v>
+        <v>0.006518664401462732</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003696211260102981</v>
+        <v>0.003696512656521021</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1601,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002804864995881892</v>
+        <v>0.002838597898692539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0009892421015556538</v>
+        <v>0.0009636441334347853</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.006362418993467473</v>
+        <v>0.00673375195465038</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004616111668700041</v>
+        <v>0.004739835741677996</v>
       </c>
       <c r="P19" t="n">
-        <v>0.0005071840383223356</v>
+        <v>0.000468162573754657</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1758,55 +1758,55 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6731267784401159</v>
+        <v>0.6759286937377693</v>
       </c>
       <c r="D2" t="n">
-        <v>1.672011493894554</v>
+        <v>1.570745851021963</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07285648758418517</v>
+        <v>0.07295207260279266</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04652865298793731</v>
+        <v>0.04554114743673903</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08983928627709506</v>
+        <v>0.09692725667016855</v>
       </c>
       <c r="J2" t="n">
-        <v>0.09704334768228269</v>
+        <v>0.09450107359549206</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.06710354553291255</v>
+        <v>0.0648873631565144</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2180787642127375</v>
+        <v>0.2107471251162496</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5193956708282224</v>
+        <v>0.4817020591257523</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1693135538989982</v>
+        <v>0.15149306077688</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.2780190644661089</v>
+        <v>0.2611753871015474</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1025916713415611</v>
+        <v>0.09978041984669656</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04257085614803954</v>
+        <v>0.04103795733246254</v>
       </c>
     </row>
     <row r="3">
@@ -1816,52 +1816,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6731267784401159</v>
+        <v>0.6759286937377693</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5550363532056427</v>
+        <v>0.563326941447606</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2842387867340466</v>
+        <v>0.3043414689267845</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8966417568580692</v>
+        <v>0.9671190130320695</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.010975559172168</v>
+        <v>3.184318315388427</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0008977249438719865</v>
+        <v>0.0009698954738156824</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0795390951584061</v>
+        <v>0.074415684218019</v>
       </c>
       <c r="L3" t="n">
-        <v>3.467715476251689</v>
+        <v>3.601483073229578</v>
       </c>
       <c r="M3" t="n">
-        <v>1.042778627830583</v>
+        <v>1.085525116039916</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02250802485417679</v>
+        <v>0.02242264413166722</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07750360138746566</v>
+        <v>0.07470800786656227</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1926359761091234</v>
+        <v>0.1962912435336634</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1877,19 +1877,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.672011493894554</v>
+        <v>1.570745851021963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5550363532056427</v>
+        <v>0.563326941447606</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001762431575591435</v>
+        <v>0.001730864962729147</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02008085634910358</v>
+        <v>0.02031932208028425</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1898,25 +1898,25 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1034317415699448</v>
+        <v>0.1105392480246775</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1444210659259649</v>
+        <v>0.1421547514976057</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05551951864215918</v>
+        <v>0.05422450631612575</v>
       </c>
       <c r="M4" t="n">
-        <v>1.36703022620846</v>
+        <v>1.333045225280131</v>
       </c>
       <c r="N4" t="n">
-        <v>2.464240561176715</v>
+        <v>2.302744110932378</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2108124116431488</v>
+        <v>0.1899222053376365</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1093931313352689</v>
+        <v>0.1069251600320217</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07070655399894782</v>
+        <v>0.06888829718248747</v>
       </c>
     </row>
     <row r="5">
@@ -1941,37 +1941,37 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2842387867340466</v>
+        <v>0.3043414689267845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001762431575591435</v>
+        <v>0.001730864962729147</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08172943977392338</v>
+        <v>0.08630151516198882</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06792529680315795</v>
+        <v>0.06932610813560153</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03960252396373874</v>
+        <v>0.04456625104583552</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008678930390425379</v>
+        <v>0.00903029347097809</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2865653032045438</v>
+        <v>0.2603036033832243</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02836679742767335</v>
+        <v>0.02916431372522788</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002831991076926484</v>
+        <v>0.002855440949248409</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002206823585575818</v>
+        <v>0.002351273130966549</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.471097346471239</v>
+        <v>1.474647134012996</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.004947304595036351</v>
+        <v>0.005148982645349061</v>
       </c>
     </row>
     <row r="6">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07285648758418517</v>
+        <v>0.07295207260279266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8966417568580692</v>
+        <v>0.9671190130320695</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02008085634910358</v>
+        <v>0.02031932208028425</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08172943977392338</v>
+        <v>0.08630151516198882</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2020,37 +2020,37 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001141515115922023</v>
+        <v>0.001337060663898671</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8563378810130262</v>
+        <v>0.798838155232081</v>
       </c>
       <c r="L6" t="n">
-        <v>1.135391448772958</v>
+        <v>1.176476885482673</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4505467200349355</v>
+        <v>0.4678401071227692</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1796054466445829</v>
+        <v>0.1723982989292159</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009597994665123146</v>
+        <v>0.01044545114564085</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.762186557088559</v>
+        <v>2.795652398561216</v>
       </c>
       <c r="R6" t="n">
-        <v>1.121036604144964</v>
+        <v>1.160196790910806</v>
       </c>
       <c r="S6" t="n">
-        <v>2.086109495045611</v>
+        <v>2.168096414057107</v>
       </c>
     </row>
     <row r="7">
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06792529680315795</v>
+        <v>0.06932610813560153</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1842763177348053</v>
+        <v>0.1890075779816778</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09947537575064955</v>
+        <v>0.1103941968527405</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05383834120658989</v>
+        <v>0.04796116433658913</v>
       </c>
       <c r="L7" t="n">
-        <v>6.215368869541499e-05</v>
+        <v>6.368878408927883e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3605147939119808</v>
+        <v>0.3655364803534186</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -2102,16 +2102,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1629188623879466</v>
+        <v>0.1722696657212142</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0006978469849750153</v>
+        <v>0.0006904179903404478</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.71687648637538</v>
+        <v>1.742421832842221</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2121,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04652865298793731</v>
+        <v>0.04554114743673903</v>
       </c>
       <c r="C8" t="n">
-        <v>3.010975559172168</v>
+        <v>3.184318315388427</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1842763177348053</v>
+        <v>0.1890075779816778</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -2151,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1552228630604891</v>
+        <v>0.1575493699730985</v>
       </c>
       <c r="M8" t="n">
-        <v>1.322551239347974</v>
+        <v>1.3450362004451</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01769593204752183</v>
+        <v>0.01722097147333599</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3679666694363763</v>
+        <v>0.3745669751382557</v>
       </c>
     </row>
     <row r="9">
@@ -2182,22 +2182,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08983928627709506</v>
+        <v>0.09692725667016855</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1034317415699448</v>
+        <v>0.1105392480246775</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03960252396373874</v>
+        <v>0.04456625104583552</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001141515115922023</v>
+        <v>0.001337060663898671</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09947537575064955</v>
+        <v>0.1103941968527405</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06677258376154155</v>
+        <v>0.07507842874345162</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001120396261844202</v>
+        <v>0.001100933144525317</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2218,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.370351086221946</v>
+        <v>0.3932580633548339</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008877096418954691</v>
+        <v>0.008968545707669666</v>
       </c>
       <c r="P9" t="n">
-        <v>0.185026744973093</v>
+        <v>0.2139601193746536</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.215245192005826</v>
+        <v>1.3433216170842</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -2243,16 +2243,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09704334768228269</v>
+        <v>0.09450107359549206</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008977249438719865</v>
+        <v>0.0009698954738156824</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1444210659259649</v>
+        <v>0.1421547514976057</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008678930390425379</v>
+        <v>0.00903029347097809</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2264,13 +2264,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06677258376154155</v>
+        <v>0.07507842874345162</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01280608627191378</v>
+        <v>0.01188269363145361</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -2279,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06613981390350138</v>
+        <v>0.06453075545255628</v>
       </c>
       <c r="O10" t="n">
-        <v>1.530664048315905</v>
+        <v>1.456007014026932</v>
       </c>
       <c r="P10" t="n">
-        <v>0.00399434248744863</v>
+        <v>0.004252266737894789</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.00657193292814878</v>
+        <v>0.006622156282058598</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2307,49 +2307,49 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0795390951584061</v>
+        <v>0.074415684218019</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2865653032045438</v>
+        <v>0.2603036033832243</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8563378810130262</v>
+        <v>0.798838155232081</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05383834120658989</v>
+        <v>0.04796116433658913</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001120396261844202</v>
+        <v>0.001100933144525317</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01280608627191378</v>
+        <v>0.01188269363145361</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8096219700518025</v>
+        <v>0.7305847720148098</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0007045650448938444</v>
+        <v>0.0006412216820613681</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01162877783753176</v>
+        <v>0.009794915255047994</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001413220873315755</v>
+        <v>0.001321680301501935</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004808466907963087</v>
+        <v>0.004189901906009924</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06710354553291255</v>
+        <v>0.0648873631565144</v>
       </c>
       <c r="C12" t="n">
-        <v>3.467715476251689</v>
+        <v>3.601483073229578</v>
       </c>
       <c r="D12" t="n">
-        <v>0.05551951864215918</v>
+        <v>0.05422450631612575</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02836679742767335</v>
+        <v>0.02916431372522788</v>
       </c>
       <c r="F12" t="n">
-        <v>1.135391448772958</v>
+        <v>1.176476885482673</v>
       </c>
       <c r="G12" t="n">
-        <v>6.215368869541499e-05</v>
+        <v>6.368878408927883e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1552228630604891</v>
+        <v>0.1575493699730985</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -2392,31 +2392,31 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8096219700518025</v>
+        <v>0.7305847720148098</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2.654051779461012</v>
+        <v>2.657890422437348</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01926168152580646</v>
+        <v>0.01854751030962858</v>
       </c>
       <c r="O12" t="n">
-        <v>0.05308961984013392</v>
+        <v>0.0494177142559841</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004527291869861136</v>
+        <v>0.00448037942246978</v>
       </c>
       <c r="R12" t="n">
-        <v>0.004962299619807964</v>
+        <v>0.004876096351410049</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3308180131006914</v>
+        <v>0.33125203410536</v>
       </c>
     </row>
     <row r="13">
@@ -2426,25 +2426,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2180787642127375</v>
+        <v>0.2107471251162496</v>
       </c>
       <c r="C13" t="n">
-        <v>1.042778627830583</v>
+        <v>1.085525116039916</v>
       </c>
       <c r="D13" t="n">
-        <v>1.36703022620846</v>
+        <v>1.333045225280131</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002831991076926484</v>
+        <v>0.002855440949248409</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4505467200349355</v>
+        <v>0.4678401071227692</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3605147939119808</v>
+        <v>0.3655364803534186</v>
       </c>
       <c r="H13" t="n">
-        <v>1.322551239347974</v>
+        <v>1.3450362004451</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007045650448938444</v>
+        <v>0.0006412216820613681</v>
       </c>
       <c r="L13" t="n">
-        <v>2.654051779461012</v>
+        <v>2.657890422437348</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.008253278324985408</v>
+        <v>0.007973746092430015</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4420741943692823</v>
+        <v>0.4094366949522767</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0008000856428544326</v>
+        <v>0.0008110240809654538</v>
       </c>
       <c r="S13" t="n">
-        <v>2.733267102168031</v>
+        <v>2.73748242863635</v>
       </c>
     </row>
     <row r="14">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5193956708282224</v>
+        <v>0.4817020591257523</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02250802485417679</v>
+        <v>0.02242264413166722</v>
       </c>
       <c r="D14" t="n">
-        <v>2.464240561176715</v>
+        <v>2.302744110932378</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -2505,40 +2505,40 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01769593204752183</v>
+        <v>0.01722097147333599</v>
       </c>
       <c r="I14" t="n">
-        <v>0.370351086221946</v>
+        <v>0.3932580633548339</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06613981390350138</v>
+        <v>0.06453075545255628</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01926168152580646</v>
+        <v>0.01854751030962858</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008253278324985408</v>
+        <v>0.007973746092430015</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09962226995911656</v>
+        <v>0.08881737085983803</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05517667087254211</v>
+        <v>0.0549447102872805</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03244860460811002</v>
+        <v>0.03038884378793401</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5334191641792794</v>
+        <v>0.5145311963650412</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07161161846126263</v>
+        <v>0.06868196407398165</v>
       </c>
     </row>
     <row r="15">
@@ -2548,19 +2548,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1693135538989982</v>
+        <v>0.15149306077688</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07750360138746566</v>
+        <v>0.07470800786656227</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2108124116431488</v>
+        <v>0.1899222053376365</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1796054466445829</v>
+        <v>0.1723982989292159</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2569,22 +2569,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008877096418954691</v>
+        <v>0.008968545707669666</v>
       </c>
       <c r="J15" t="n">
-        <v>1.530664048315905</v>
+        <v>1.456007014026932</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01162877783753176</v>
+        <v>0.009794915255047994</v>
       </c>
       <c r="L15" t="n">
-        <v>0.05308961984013392</v>
+        <v>0.0494177142559841</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4420741943692823</v>
+        <v>0.4094366949522767</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09962226995911656</v>
+        <v>0.08881737085983803</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2593,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.1691092913397064</v>
+        <v>0.1527448048480919</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5638227893255368</v>
+        <v>0.5211326491480895</v>
       </c>
     </row>
     <row r="16">
@@ -2618,25 +2618,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002206823585575818</v>
+        <v>0.002351273130966549</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009597994665123146</v>
+        <v>0.01044545114564085</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1629188623879466</v>
+        <v>0.1722696657212142</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.185026744973093</v>
+        <v>0.2139601193746536</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00399434248744863</v>
+        <v>0.004252266737894789</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001413220873315755</v>
+        <v>0.001321680301501935</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05517667087254211</v>
+        <v>0.0549447102872805</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2654,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01665487932175077</v>
+        <v>0.01716783206185233</v>
       </c>
       <c r="R16" t="n">
-        <v>0.003737530703468491</v>
+        <v>0.003878793817715529</v>
       </c>
       <c r="S16" t="n">
-        <v>0.006818904519871045</v>
+        <v>0.007315015507331812</v>
       </c>
     </row>
     <row r="17">
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2780190644661089</v>
+        <v>0.2611753871015474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1926359761091234</v>
+        <v>0.1962912435336634</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.471097346471239</v>
+        <v>1.474647134012996</v>
       </c>
       <c r="F17" t="n">
-        <v>2.762186557088559</v>
+        <v>2.795652398561216</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0006978469849750153</v>
+        <v>0.0006904179903404478</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2697,31 +2697,31 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.004808466907963087</v>
+        <v>0.004189901906009924</v>
       </c>
       <c r="L17" t="n">
-        <v>0.004527291869861136</v>
+        <v>0.00448037942246978</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03244860460811002</v>
+        <v>0.03038884378793401</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1691092913397064</v>
+        <v>0.1527448048480919</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01665487932175077</v>
+        <v>0.01716783206185233</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.011137544236978</v>
+        <v>0.9891173617269731</v>
       </c>
       <c r="S17" t="n">
-        <v>6.260372218219945</v>
+        <v>6.106676526329089</v>
       </c>
     </row>
     <row r="18">
@@ -2731,19 +2731,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1025916713415611</v>
+        <v>0.09978041984669656</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1093931313352689</v>
+        <v>0.1069251600320217</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.121036604144964</v>
+        <v>1.160196790910806</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2752,37 +2752,37 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.215245192005826</v>
+        <v>1.3433216170842</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00657193292814878</v>
+        <v>0.006622156282058598</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004962299619807964</v>
+        <v>0.004876096351410049</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0008000856428544326</v>
+        <v>0.0008110240809654538</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5334191641792794</v>
+        <v>0.5145311963650412</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.003737530703468491</v>
+        <v>0.003878793817715529</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.011137544236978</v>
+        <v>0.9891173617269731</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.153928388087731</v>
+        <v>1.155452713728786</v>
       </c>
     </row>
     <row r="19">
@@ -2792,25 +2792,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04257085614803954</v>
+        <v>0.04103795733246254</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07070655399894782</v>
+        <v>0.06888829718248747</v>
       </c>
       <c r="E19" t="n">
-        <v>0.004947304595036351</v>
+        <v>0.005148982645349061</v>
       </c>
       <c r="F19" t="n">
-        <v>2.086109495045611</v>
+        <v>2.168096414057107</v>
       </c>
       <c r="G19" t="n">
-        <v>1.71687648637538</v>
+        <v>1.742421832842221</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3679666694363763</v>
+        <v>0.3745669751382557</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2822,25 +2822,25 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3308180131006914</v>
+        <v>0.33125203410536</v>
       </c>
       <c r="M19" t="n">
-        <v>2.733267102168031</v>
+        <v>2.73748242863635</v>
       </c>
       <c r="N19" t="n">
-        <v>0.07161161846126263</v>
+        <v>0.06868196407398165</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5638227893255368</v>
+        <v>0.5211326491480895</v>
       </c>
       <c r="P19" t="n">
-        <v>0.006818904519871045</v>
+        <v>0.007315015507331812</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.260372218219945</v>
+        <v>6.106676526329089</v>
       </c>
       <c r="R19" t="n">
-        <v>1.153928388087731</v>
+        <v>1.155452713728786</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2990,25 +2990,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02345587058868779</v>
+        <v>0.02183824391459479</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002436231674397561</v>
+        <v>0.002462422009043919</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006794807436614567</v>
+        <v>0.007029572586184855</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00182031430262936</v>
+        <v>0.001992895830148912</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01398420241039898</v>
+        <v>0.01488448525552356</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001572161743405285</v>
+        <v>0.001625046772702289</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3039,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004982950285915145</v>
+        <v>0.0004778935451086258</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001581838758694111</v>
+        <v>0.001463863339048953</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002190018869727521</v>
+        <v>0.002043894705146672</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -3057,16 +3057,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03939420408894709</v>
+        <v>0.04197880109182583</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0007690522132594918</v>
+        <v>0.0007667579917629419</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01657933156834158</v>
+        <v>0.0168015023026604</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -3075,10 +3075,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01070311082714039</v>
+        <v>0.01052358580192563</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001818006315620196</v>
+        <v>0.001749562431777517</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3100,16 +3100,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003536803248781132</v>
+        <v>0.003590395973200034</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005326710833728964</v>
+        <v>0.0005209007705120591</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01570795064584391</v>
+        <v>0.01614162869480816</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001137382524214799</v>
+        <v>0.001153442063138963</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004982950285915145</v>
+        <v>0.0004778935451086258</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003536803248781132</v>
+        <v>0.003590395973200034</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01004651530406739</v>
+        <v>0.01016465201505466</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005378144909692219</v>
+        <v>0.005378545124832185</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0008509487491807734</v>
+        <v>0.0008731631750001991</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002142275155108892</v>
+        <v>0.001982043779506752</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001581838758694111</v>
+        <v>0.001463863339048953</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0005326710833728964</v>
+        <v>0.0005209007705120591</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006170940598194455</v>
+        <v>0.005789819906565948</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01134398533882889</v>
+        <v>0.01066466146729587</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001999889138499861</v>
+        <v>0.002148027149427754</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001002221221320323</v>
+        <v>0.0009687502510669985</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005834939042038533</v>
+        <v>0.005854701723258241</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -3255,16 +3255,16 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002738469378491093</v>
+        <v>0.00244412741284819</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02761231363853374</v>
+        <v>0.02731862891191201</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000647973775821719</v>
+        <v>0.0006242949824849171</v>
       </c>
     </row>
     <row r="7">
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002190018869727521</v>
+        <v>0.002043894705146672</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006170940598194455</v>
+        <v>0.005789819906565948</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -3301,25 +3301,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03087779081595972</v>
+        <v>0.03357616101475959</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002104215302331888</v>
+        <v>0.002133298151257036</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0005295705050009815</v>
+        <v>0.0005292799162073321</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0008424473417588457</v>
+        <v>0.0007576669410917285</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04014092805777707</v>
+        <v>0.04012231429232298</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01570795064584391</v>
+        <v>0.01614162869480816</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01004651530406739</v>
+        <v>0.01016465201505466</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -3356,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01617719401765779</v>
+        <v>0.01466600895384137</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02978012362618054</v>
+        <v>0.03362927506009026</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -3371,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.03983703525866434</v>
+        <v>0.04261805220583735</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0204100029916445</v>
+        <v>0.02119917930924891</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0202001244835586</v>
+        <v>0.02044306267736376</v>
       </c>
     </row>
     <row r="9">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02345587058868779</v>
+        <v>0.02183824391459479</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -3414,34 +3414,34 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01617719401765779</v>
+        <v>0.01466600895384137</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0008202369808054059</v>
+        <v>0.0007175795275265395</v>
       </c>
       <c r="K9" t="n">
         <v>0.0003366535316339512</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06842007029373195</v>
+        <v>0.06183613242448713</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01054343453798563</v>
+        <v>0.009864926830621814</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0004246406509759706</v>
+        <v>0.0004041556414249819</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07191189715303092</v>
+        <v>0.06616893386670551</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0007724294438017199</v>
+        <v>0.0007114811804578798</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002436231674397561</v>
+        <v>0.002462422009043919</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01134398533882889</v>
+        <v>0.01066466146729587</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008202369808054059</v>
+        <v>0.0007175795275265395</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002202795852801046</v>
+        <v>0.002270716547861817</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02606345092692926</v>
+        <v>0.02606142851114533</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001284354238657965</v>
+        <v>0.001254772485590336</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03939420408894709</v>
+        <v>0.04197880109182583</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3530,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001999889138499861</v>
+        <v>0.002148027149427754</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03087779081595972</v>
+        <v>0.03357616101475959</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02978012362618054</v>
+        <v>0.03362927506009026</v>
       </c>
       <c r="I11" t="n">
         <v>0.0003366535316339512</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05230849871960983</v>
+        <v>0.06144302341549829</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01174423818744778</v>
+        <v>0.01344435766205802</v>
       </c>
       <c r="P11" t="n">
-        <v>0.00266736507597503</v>
+        <v>0.002742484955713925</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01939136982263621</v>
+        <v>0.02216551340563701</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03582495884124467</v>
+        <v>0.03953460121559856</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.006794807436614567</v>
+        <v>0.007029572586184855</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001137382524214799</v>
+        <v>0.001153442063138963</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005378144909692219</v>
+        <v>0.005378545124832185</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001002221221320323</v>
+        <v>0.0009687502510669985</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06842007029373195</v>
+        <v>0.06183613242448713</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001539199333980146</v>
+        <v>0.001596357301260288</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0007690522132594918</v>
+        <v>0.0007667579917629419</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -3652,16 +3652,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005834939042038533</v>
+        <v>0.005854701723258241</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002104215302331888</v>
+        <v>0.002133298151257036</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01054343453798563</v>
+        <v>0.009864926830621814</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001539199333980146</v>
+        <v>0.001596357301260288</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002631559171151922</v>
+        <v>0.002806795326789511</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00182031430262936</v>
+        <v>0.001992895830148912</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01657933156834158</v>
+        <v>0.0168015023026604</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3719,16 +3719,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03983703525866434</v>
+        <v>0.04261805220583735</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004246406509759706</v>
+        <v>0.0004041556414249819</v>
       </c>
       <c r="J14" t="n">
-        <v>0.002202795852801046</v>
+        <v>0.002270716547861817</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05230849871960983</v>
+        <v>0.06144302341549829</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0006631001718573283</v>
+        <v>0.0007189940709044604</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.001200208846414478</v>
+        <v>0.001300297499335521</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0009780879465589518</v>
+        <v>0.001028815255528287</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01398420241039898</v>
+        <v>0.01488448525552356</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -3771,34 +3771,34 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0008509487491807734</v>
+        <v>0.0008731631750001991</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0005295705050009815</v>
+        <v>0.0005292799162073321</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0204100029916445</v>
+        <v>0.02119917930924891</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07191189715303092</v>
+        <v>0.06616893386670551</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02606345092692926</v>
+        <v>0.02606142851114533</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01174423818744778</v>
+        <v>0.01344435766205802</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002631559171151922</v>
+        <v>0.002806795326789511</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0006631001718573283</v>
+        <v>0.0007189940709044604</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.00213676509954755</v>
+        <v>0.002249767862671987</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3832,13 +3832,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002142275155108892</v>
+        <v>0.001982043779506752</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002738469378491093</v>
+        <v>0.00244412741284819</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0008424473417588457</v>
+        <v>0.0007576669410917285</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00266736507597503</v>
+        <v>0.002742484955713925</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02218663421922165</v>
+        <v>0.02104616417189899</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01070311082714039</v>
+        <v>0.01052358580192563</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -3896,22 +3896,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02761231363853374</v>
+        <v>0.02731862891191201</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04014092805777707</v>
+        <v>0.04012231429232298</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0007724294438017199</v>
+        <v>0.0007114811804578798</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01939136982263621</v>
+        <v>0.02216551340563701</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3920,19 +3920,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001200208846414478</v>
+        <v>0.001300297499335521</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00213676509954755</v>
+        <v>0.002249767862671987</v>
       </c>
       <c r="P17" t="n">
-        <v>0.02218663421922165</v>
+        <v>0.02104616417189899</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.001859603544836997</v>
+        <v>0.001903444427147366</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001572161743405285</v>
+        <v>0.001625046772702289</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001818006315620196</v>
+        <v>0.001749562431777517</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -3969,10 +3969,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001284354238657965</v>
+        <v>0.001254772485590336</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03582495884124467</v>
+        <v>0.03953460121559856</v>
       </c>
       <c r="L18" t="n">
         <v>0.001491057895252483</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0009780879465589518</v>
+        <v>0.001028815255528287</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.001859603544836997</v>
+        <v>0.001903444427147366</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -4018,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000647973775821719</v>
+        <v>0.0006242949824849171</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0202001244835586</v>
+        <v>0.02044306267736376</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -4204,16 +4204,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09575773946082247</v>
+        <v>0.08915383733674703</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01091516635683765</v>
+        <v>0.01103250817724434</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02588588767255534</v>
+        <v>0.02678026243562221</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004029364353625978</v>
+        <v>0.004288769037416055</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0002917556891301418</v>
+        <v>0.0003015698881029492</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01379258110964544</v>
+        <v>0.01276391397435308</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02891804072989312</v>
+        <v>0.03081531174039128</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -4286,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.009210882092944322</v>
+        <v>0.008186933990766525</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.003858941327120971</v>
+        <v>0.003794214674258801</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02849734589288128</v>
+        <v>0.02742448436574647</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03936271869612959</v>
+        <v>0.03995917690629082</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01563738923763861</v>
+        <v>0.01606911916908374</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01673255487713613</v>
+        <v>0.0169923705641802</v>
       </c>
     </row>
     <row r="5">
@@ -4372,19 +4372,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03936271869612959</v>
+        <v>0.03995917690629082</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00248395542885425</v>
+        <v>0.002395906932654759</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0392133030618999</v>
+        <v>0.03967441126812582</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02044959051915857</v>
+        <v>0.02045111227728694</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0001672910697770261</v>
+        <v>0.000154778541602295</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01955916536243477</v>
+        <v>0.01956076025568228</v>
       </c>
     </row>
     <row r="6">
@@ -4430,19 +4430,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01379258110964544</v>
+        <v>0.01276391397435308</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00248395542885425</v>
+        <v>0.002395906932654759</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01530456929242203</v>
+        <v>0.0143593506598669</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -4451,10 +4451,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007183360220522848</v>
+        <v>0.006753191463259132</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007758996909449536</v>
+        <v>0.008333729951813928</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -4469,16 +4469,16 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009373725226928264</v>
+        <v>0.00836619863913388</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.007413020270545558</v>
+        <v>0.007171773187216892</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0004411421530386317</v>
+        <v>0.0004250215718303767</v>
       </c>
     </row>
     <row r="7">
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01530456929242203</v>
+        <v>0.0143593506598669</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00026013439115961</v>
+        <v>0.000263729769061266</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -4530,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.007509398835177957</v>
+        <v>0.006753684132955282</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0003416385557113766</v>
+        <v>0.0003414801343630477</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -4555,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01563738923763861</v>
+        <v>0.01606911916908374</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0392133030618999</v>
+        <v>0.03967441126812582</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8.823722685205529e-05</v>
+        <v>8.698274085196708e-05</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.208205043702426</v>
+        <v>0.2107090360565009</v>
       </c>
     </row>
     <row r="9">
@@ -4610,7 +4610,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09575773946082247</v>
+        <v>0.08915383733674703</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0659947654059003</v>
+        <v>0.05964421017755174</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001954710990695381</v>
+        <v>0.001798605618714283</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01091516635683765</v>
+        <v>0.01103250817724434</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -4683,13 +4683,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007183360220522848</v>
+        <v>0.006753191463259132</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.823722685205529e-05</v>
+        <v>8.698274085196708e-05</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -4704,13 +4704,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02108064862246645</v>
+        <v>0.02137452951160696</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1730717064132579</v>
+        <v>0.1730582767660564</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -4719,10 +4719,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002213952771534778</v>
+        <v>0.002162960138646076</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01608023451917513</v>
+        <v>0.01566413685213221</v>
       </c>
     </row>
     <row r="11">
@@ -4735,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02891804072989312</v>
+        <v>0.03081531174039128</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.007758996909449536</v>
+        <v>0.008333729951813928</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1369481419566214</v>
+        <v>0.1511289992952887</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02588588767255534</v>
+        <v>0.02678026243562221</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02044959051915857</v>
+        <v>0.02045111227728694</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0659947654059003</v>
+        <v>0.05964421017755174</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -4826,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.007724627993935502</v>
+        <v>0.008011481050834194</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003586756973352154</v>
+        <v>0.003674284242848396</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -4869,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00026013439115961</v>
+        <v>0.000263729769061266</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -4878,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02108064862246645</v>
+        <v>0.02137452951160696</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.007724627993935502</v>
+        <v>0.008011481050834194</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03158954708096449</v>
+        <v>0.03369310258884909</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004029364353625978</v>
+        <v>0.004288769037416055</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -4997,19 +4997,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001954710990695381</v>
+        <v>0.001798605618714283</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1730717064132579</v>
+        <v>0.1730582767660564</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003586756973352154</v>
+        <v>0.003674284242848396</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03158954708096449</v>
+        <v>0.03369310258884909</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5040,19 +5040,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009210882092944322</v>
+        <v>0.008186933990766525</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0001672910697770261</v>
+        <v>0.000154778541602295</v>
       </c>
       <c r="F16" t="n">
-        <v>0.009373725226928264</v>
+        <v>0.00836619863913388</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007509398835177957</v>
+        <v>0.006753684132955282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1810740442983929</v>
+        <v>0.1717662095980317</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003858941327120971</v>
+        <v>0.003794214674258801</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003416385557113766</v>
+        <v>0.0003414801343630477</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1810740442983929</v>
+        <v>0.1717662095980317</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -5159,10 +5159,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0002917556891301418</v>
+        <v>0.0003015698881029492</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02849734589288128</v>
+        <v>0.02742448436574647</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.007413020270545558</v>
+        <v>0.007171773187216892</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -5183,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002213952771534778</v>
+        <v>0.002162960138646076</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1369481419566214</v>
+        <v>0.1511289992952887</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -5226,25 +5226,25 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01673255487713613</v>
+        <v>0.0169923705641802</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01955916536243477</v>
+        <v>0.01956076025568228</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0004411421530386317</v>
+        <v>0.0004250215718303767</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.208205043702426</v>
+        <v>0.2107090360565009</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01608023451917513</v>
+        <v>0.01566413685213221</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -5406,13 +5406,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00212668786898729</v>
+        <v>0.002205192858496424</v>
       </c>
       <c r="F2" t="n">
         <v>0.0003468545582228661</v>
       </c>
       <c r="G2" t="n">
-        <v>9.560077336499361e-05</v>
+        <v>9.660931118323465e-05</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -5421,16 +5421,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01267761861281267</v>
+        <v>0.01281390740565523</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00422437769583916</v>
+        <v>0.004370332775634503</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004263667911673534</v>
+        <v>0.004592705680205458</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -5439,16 +5439,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0008550641118725857</v>
+        <v>0.0008196769972396605</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.005291532912562707</v>
+        <v>0.005469531693083089</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009923143799236672</v>
+        <v>0.01029951727310032</v>
       </c>
     </row>
     <row r="3">
@@ -5464,16 +5464,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.424664564830585e-05</v>
+        <v>8.187803635237467e-05</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001815027337800442</v>
+        <v>0.001679660436042885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01168277059702743</v>
+        <v>0.01090326357218945</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -5482,16 +5482,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001535319791319307</v>
+        <v>0.0001435869127339931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>8.956494208360077e-05</v>
+        <v>8.610650579283339e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>9.497107457959449e-05</v>
+        <v>9.468775873043065e-05</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -5500,16 +5500,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0001257221561056432</v>
+        <v>0.000111745974253887</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001386129075064755</v>
+        <v>0.001333944406293499</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000340927995688848</v>
+        <v>0.0003265520972442902</v>
       </c>
     </row>
     <row r="4">
@@ -5522,16 +5522,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>8.424664564830585e-05</v>
+        <v>8.187803635237467e-05</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0046911106991733</v>
+        <v>0.004762194495821021</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002077946705330642</v>
+        <v>0.0002032030785369269</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -5549,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007209629056998816</v>
+        <v>0.0007311427102954897</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01433462732045306</v>
+        <v>0.0151400129306642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001089047199203023</v>
+        <v>0.001105957440846455</v>
       </c>
     </row>
     <row r="5">
@@ -5580,22 +5580,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00212668786898729</v>
+        <v>0.002205192858496424</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0046911106991733</v>
+        <v>0.004762194495821021</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000913040316152097</v>
+        <v>0.0008806758760044002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006508146095307585</v>
+        <v>0.00633803531838163</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01173391105964336</v>
+        <v>0.01173478423969633</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004960400134472098</v>
+        <v>0.005156923767296966</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002059678844491031</v>
+        <v>0.001905625256293277</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01225721498050225</v>
+        <v>0.01225821445819179</v>
       </c>
     </row>
     <row r="6">
@@ -5644,19 +5644,19 @@
         <v>0.0003468545582228661</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001815027337800442</v>
+        <v>0.001679660436042885</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0002077946705330642</v>
+        <v>0.0002032030785369269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000913040316152097</v>
+        <v>0.0008806758760044002</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007270337108623495</v>
+        <v>0.006821317082726355</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -5665,16 +5665,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0008725581923534596</v>
+        <v>0.0008203058672963651</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003035867036083975</v>
+        <v>0.0002934478826478963</v>
       </c>
       <c r="M6" t="n">
-        <v>0.003112166976431052</v>
+        <v>0.0031227077487364</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -5683,16 +5683,16 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0003321017075527676</v>
+        <v>0.0002964060484512925</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0001026999815783665</v>
+        <v>9.935774452660342e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0001757945490866293</v>
+        <v>0.0001693705193606117</v>
       </c>
     </row>
     <row r="7">
@@ -5702,19 +5702,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.560077336499361e-05</v>
+        <v>9.660931118323465e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01168277059702743</v>
+        <v>0.01090326357218945</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006508146095307585</v>
+        <v>0.00633803531838163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007270337108623495</v>
+        <v>0.006821317082726355</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -5732,10 +5732,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002643168611322464</v>
+        <v>0.0002578133356887358</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002595885375839275</v>
+        <v>0.002631763711164026</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -5744,16 +5744,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0007075426003710795</v>
+        <v>0.0006363384524378958</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00051564007559754</v>
+        <v>0.0005032854111708385</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0003366191723479385</v>
+        <v>0.0003275331191213136</v>
       </c>
     </row>
     <row r="8">
@@ -5885,10 +5885,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01267761861281267</v>
+        <v>0.01281390740565523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001535319791319307</v>
+        <v>0.0001435869127339931</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008725581923534596</v>
+        <v>0.0008203058672963651</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5927,16 +5927,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0008050941032703346</v>
+        <v>0.0007262334011384165</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.004705663382605132</v>
+        <v>0.004597280688786128</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02919382808159156</v>
+        <v>0.02843839856703338</v>
       </c>
     </row>
     <row r="11">
@@ -6007,22 +6007,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00422437769583916</v>
+        <v>0.004370332775634503</v>
       </c>
       <c r="C12" t="n">
-        <v>8.956494208360077e-05</v>
+        <v>8.610650579283339e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0007209629056998816</v>
+        <v>0.0007311427102954897</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01173391105964336</v>
+        <v>0.01173478423969633</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0003035867036083975</v>
+        <v>0.0002934478826478963</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002643168611322464</v>
+        <v>0.0002578133356887358</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01610835331782546</v>
+        <v>0.01670653492533459</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0002494042010752092</v>
+        <v>0.0002318125220500754</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -6068,22 +6068,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004263667911673534</v>
+        <v>0.004592705680205458</v>
       </c>
       <c r="C13" t="n">
-        <v>9.497107457959449e-05</v>
+        <v>9.468775873043065e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01433462732045306</v>
+        <v>0.0151400129306642</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004960400134472098</v>
+        <v>0.005156923767296966</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003112166976431052</v>
+        <v>0.0031227077487364</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002595885375839275</v>
+        <v>0.002631763711164026</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01610835331782546</v>
+        <v>0.01670653492533459</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0003689784988449793</v>
+        <v>0.0003552032470051427</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -6251,22 +6251,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0008550641118725857</v>
+        <v>0.0008196769972396605</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001257221561056432</v>
+        <v>0.000111745974253887</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002059678844491031</v>
+        <v>0.001905625256293277</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0003321017075527676</v>
+        <v>0.0002964060484512925</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0007075426003710795</v>
+        <v>0.0006363384524378958</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -6275,16 +6275,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0008050941032703346</v>
+        <v>0.0007262334011384165</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002494042010752092</v>
+        <v>0.0002318125220500754</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0003689784988449793</v>
+        <v>0.0003552032470051427</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.00268165499317796</v>
+        <v>0.002475335201164853</v>
       </c>
     </row>
     <row r="17">
@@ -6373,10 +6373,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005291532912562707</v>
+        <v>0.005469531693083089</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001386129075064755</v>
+        <v>0.001333944406293499</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -6385,10 +6385,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0001026999815783665</v>
+        <v>9.935774452660342e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00051564007559754</v>
+        <v>0.0005032854111708385</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.004705663382605132</v>
+        <v>0.004597280688786128</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -6434,22 +6434,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.009923143799236672</v>
+        <v>0.01029951727310032</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000340927995688848</v>
+        <v>0.0003265520972442902</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001089047199203023</v>
+        <v>0.001105957440846455</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01225721498050225</v>
+        <v>0.01225821445819179</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0001757945490866293</v>
+        <v>0.0001693705193606117</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003366191723479385</v>
+        <v>0.0003275331191213136</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02919382808159156</v>
+        <v>0.02843839856703338</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.00268165499317796</v>
+        <v>0.002475335201164853</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
